--- a/Proyecto No. 1/Proyecto Normal - Mejora - Port Security/Enlaces.xlsx
+++ b/Proyecto No. 1/Proyecto Normal - Mejora - Port Security/Enlaces.xlsx
@@ -1,20 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/942a7e750958a683/Documents/Universidad/Redes 2/Lab/REDES2_1S2023_G8/Proyecto No. 1/Proyecto Normal - Mejora - Port Security/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14746f92f6dda876/Documentos/Redes 2/Tabajos Clase/Repositorio/REDES2_1S2023_G8/Proyecto No. 1/Proyecto Normal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="8_{A0B8DCCB-46AC-4547-BB7C-B4AA9CC4B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E8FD716-9E70-4F5F-B013-EF8954AA694F}"/>
+  <xr:revisionPtr revIDLastSave="88" documentId="8_{A0B8DCCB-46AC-4547-BB7C-B4AA9CC4B0C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3CBF721B-46F9-4548-ABDE-33B22A03D2FA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{A3693C75-A27A-42AC-8B5F-E64D960EDB70}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A3693C75-A27A-42AC-8B5F-E64D960EDB70}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="IPs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="124">
   <si>
     <t>Dispositivo Inicial</t>
   </si>
@@ -297,80 +296,126 @@
     <t>VLAN 18</t>
   </si>
   <si>
-    <t>172.8.8.1/24</t>
-  </si>
-  <si>
-    <t>172.8.18.1/24</t>
-  </si>
-  <si>
     <t>DNS</t>
   </si>
   <si>
-    <t>Dispositivo</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IP</t>
-  </si>
-  <si>
-    <t>MAC</t>
-  </si>
-  <si>
-    <t>00E0.B093.6519</t>
-  </si>
-  <si>
-    <t>0001.63CD.1864</t>
-  </si>
-  <si>
-    <t>000A.F3DC.05EC</t>
-  </si>
-  <si>
-    <t>0001.C9BE.45D6</t>
-  </si>
-  <si>
-    <t>0090.0C43.949D</t>
-  </si>
-  <si>
-    <t>0004.9A92.A97E</t>
-  </si>
-  <si>
-    <t>0040.0B26.CCCB</t>
-  </si>
-  <si>
-    <t>0002.1777.3D64</t>
-  </si>
-  <si>
-    <t>192.168.18.30</t>
-  </si>
-  <si>
-    <t>192.168.18.47</t>
-  </si>
-  <si>
-    <t>192.168.8.30</t>
-  </si>
-  <si>
-    <t>192.168.8.35</t>
-  </si>
-  <si>
-    <t>192.168.8.39</t>
-  </si>
-  <si>
-    <t>192.168.8.32</t>
+    <t>SWITCH</t>
+  </si>
+  <si>
+    <t>IP ADDRESS</t>
+  </si>
+  <si>
+    <t>IP HELPER</t>
+  </si>
+  <si>
+    <t>192.168.8.2/24</t>
+  </si>
+  <si>
+    <t>192.168.18.2/24</t>
+  </si>
+  <si>
+    <t>192.168.8.3/24</t>
+  </si>
+  <si>
+    <t>192.168.18.3/24</t>
+  </si>
+  <si>
+    <t>192.168.8.5/24</t>
+  </si>
+  <si>
+    <t>192.168.18.5/24</t>
+  </si>
+  <si>
+    <t>192.168.8.4/24</t>
+  </si>
+  <si>
+    <t>192.168.18.4/24</t>
+  </si>
+  <si>
+    <t>192.168.8.6/24</t>
+  </si>
+  <si>
+    <t>192.168.8.15</t>
+  </si>
+  <si>
+    <t>192.168.18.15</t>
+  </si>
+  <si>
+    <t>192.168.8.7/24</t>
+  </si>
+  <si>
+    <t>192.168.18.7/24</t>
+  </si>
+  <si>
+    <t>192.168.8.8/24</t>
+  </si>
+  <si>
+    <t>192.168.18.8/24</t>
+  </si>
+  <si>
+    <t>192.168.8.9/24</t>
+  </si>
+  <si>
+    <t>192.168.18.9/24</t>
+  </si>
+  <si>
+    <t>192.168.8.10/24</t>
+  </si>
+  <si>
+    <t>192.168.18.10/24</t>
+  </si>
+  <si>
+    <t>192.168.18.6/24</t>
+  </si>
+  <si>
+    <t>192.168.8.11/24</t>
+  </si>
+  <si>
+    <t>192.168.18.11/24</t>
+  </si>
+  <si>
+    <t>192.168.8.12/24</t>
+  </si>
+  <si>
+    <t>192.168.18.12/24</t>
+  </si>
+  <si>
+    <t>192.168.18.13/24</t>
+  </si>
+  <si>
+    <t>192.168.8.13/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STANDBY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ID </t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>192.168.8.20</t>
+  </si>
+  <si>
+    <t>192.168.18.20</t>
+  </si>
+  <si>
+    <t>PREEMPT</t>
+  </si>
+  <si>
+    <t>192.168.8.21</t>
+  </si>
+  <si>
+    <t>192.168.18.21</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -510,7 +555,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -557,11 +602,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -581,7 +623,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -877,13 +919,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{729BFA06-5E88-4877-A345-01385B9E28D2}">
-  <dimension ref="A3:S64"/>
+  <dimension ref="A2:X64"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="K9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
@@ -893,9 +935,16 @@
     <col min="12" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="15.6640625" customWidth="1"/>
     <col min="15" max="15" width="14.21875" style="16" customWidth="1"/>
+    <col min="19" max="19" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="Q2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>48</v>
       </c>
@@ -921,10 +970,28 @@
         <v>82</v>
       </c>
       <c r="Q3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+      <c r="R3" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" t="s">
+        <v>88</v>
+      </c>
+      <c r="T3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>116</v>
+      </c>
+      <c r="V3" t="s">
+        <v>117</v>
+      </c>
+      <c r="W3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>1</v>
       </c>
@@ -947,17 +1014,17 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="14"/>
-      <c r="Q4" t="s">
+      <c r="Q4" s="24" t="s">
         <v>4</v>
       </c>
       <c r="R4" t="s">
         <v>84</v>
       </c>
       <c r="S4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2</v>
       </c>
@@ -980,14 +1047,15 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
       <c r="O5" s="14"/>
+      <c r="Q5" s="24"/>
       <c r="R5" t="s">
         <v>85</v>
       </c>
       <c r="S5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>3</v>
       </c>
@@ -1018,8 +1086,17 @@
       <c r="O6" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q6" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="R6" t="s">
+        <v>84</v>
+      </c>
+      <c r="S6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>4</v>
       </c>
@@ -1044,8 +1121,15 @@
       <c r="O7" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q7" s="24"/>
+      <c r="R7" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B8">
         <v>5</v>
       </c>
@@ -1070,8 +1154,17 @@
       <c r="O8" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q8" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="R8" t="s">
+        <v>84</v>
+      </c>
+      <c r="S8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B9">
         <v>6</v>
       </c>
@@ -1096,8 +1189,15 @@
       <c r="O9" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q9" s="24"/>
+      <c r="R9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B10">
         <v>7</v>
       </c>
@@ -1126,8 +1226,17 @@
       <c r="O10" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q10" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B11">
         <v>8</v>
       </c>
@@ -1152,8 +1261,15 @@
       <c r="O11" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q11" s="24"/>
+      <c r="R11" t="s">
+        <v>85</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B12">
         <v>9</v>
       </c>
@@ -1179,7 +1295,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B13">
         <v>10</v>
       </c>
@@ -1204,8 +1320,20 @@
       <c r="O13" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q13" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="R13" t="s">
+        <v>84</v>
+      </c>
+      <c r="S13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B14">
         <v>11</v>
       </c>
@@ -1230,8 +1358,18 @@
       <c r="O14" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q14" s="24"/>
+      <c r="R14" t="s">
+        <v>85</v>
+      </c>
+      <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="T14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B15">
         <v>12</v>
       </c>
@@ -1256,8 +1394,29 @@
       <c r="O15" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="Q15" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>84</v>
+      </c>
+      <c r="S15" t="s">
+        <v>101</v>
+      </c>
+      <c r="U15" t="s">
+        <v>119</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15">
+        <v>100</v>
+      </c>
+      <c r="X15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>63</v>
       </c>
@@ -1290,8 +1449,27 @@
       <c r="O16" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q16" s="24"/>
+      <c r="R16" t="s">
+        <v>85</v>
+      </c>
+      <c r="S16" t="s">
+        <v>102</v>
+      </c>
+      <c r="U16" t="s">
+        <v>120</v>
+      </c>
+      <c r="V16">
+        <v>2</v>
+      </c>
+      <c r="W16">
+        <v>100</v>
+      </c>
+      <c r="X16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A17" s="17"/>
       <c r="B17" s="17">
         <v>14</v>
@@ -1318,14 +1496,32 @@
       <c r="O17" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q17" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s">
+        <v>84</v>
+      </c>
+      <c r="S17" t="s">
+        <v>103</v>
+      </c>
+      <c r="U17" t="s">
+        <v>119</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18" s="17"/>
       <c r="B18" s="17">
         <v>15</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17" t="s">
@@ -1346,8 +1542,24 @@
       <c r="O18" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q18" s="24"/>
+      <c r="R18" t="s">
+        <v>85</v>
+      </c>
+      <c r="S18" t="s">
+        <v>104</v>
+      </c>
+      <c r="U18" t="s">
+        <v>120</v>
+      </c>
+      <c r="V18">
+        <v>2</v>
+      </c>
+      <c r="W18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I19" s="6" t="s">
         <v>11</v>
       </c>
@@ -1363,8 +1575,17 @@
       <c r="O19" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q19" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="R19" t="s">
+        <v>84</v>
+      </c>
+      <c r="S19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I20" s="6" t="s">
         <v>11</v>
       </c>
@@ -1380,8 +1601,15 @@
       <c r="O20" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q20" s="24"/>
+      <c r="R20" t="s">
+        <v>85</v>
+      </c>
+      <c r="S20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I21" s="6" t="s">
         <v>11</v>
       </c>
@@ -1398,7 +1626,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>66</v>
       </c>
@@ -1421,8 +1649,20 @@
       <c r="O22" s="14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="R22" t="s">
+        <v>84</v>
+      </c>
+      <c r="S22" t="s">
+        <v>107</v>
+      </c>
+      <c r="T22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>67</v>
       </c>
@@ -1441,8 +1681,18 @@
       <c r="O23" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q23" s="24"/>
+      <c r="R23" t="s">
+        <v>85</v>
+      </c>
+      <c r="S23" t="s">
+        <v>108</v>
+      </c>
+      <c r="T23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
         <v>68</v>
       </c>
@@ -1461,8 +1711,29 @@
       <c r="O24" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="R24" t="s">
+        <v>84</v>
+      </c>
+      <c r="S24" t="s">
+        <v>110</v>
+      </c>
+      <c r="U24" t="s">
+        <v>122</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24">
+        <v>100</v>
+      </c>
+      <c r="X24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
@@ -1470,8 +1741,27 @@
       <c r="M25" s="12"/>
       <c r="N25" s="1"/>
       <c r="O25" s="14"/>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q25" s="24"/>
+      <c r="R25" t="s">
+        <v>85</v>
+      </c>
+      <c r="S25" t="s">
+        <v>111</v>
+      </c>
+      <c r="U25" t="s">
+        <v>123</v>
+      </c>
+      <c r="V25">
+        <v>2</v>
+      </c>
+      <c r="W25">
+        <v>100</v>
+      </c>
+      <c r="X25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I26" s="7" t="s">
         <v>16</v>
       </c>
@@ -1491,8 +1781,26 @@
       <c r="O26" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q26" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="R26" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" t="s">
+        <v>112</v>
+      </c>
+      <c r="U26" t="s">
+        <v>122</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>69</v>
       </c>
@@ -1511,8 +1819,24 @@
       <c r="O27" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q27" s="24"/>
+      <c r="R27" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" t="s">
+        <v>113</v>
+      </c>
+      <c r="U27" t="s">
+        <v>123</v>
+      </c>
+      <c r="V27">
+        <v>2</v>
+      </c>
+      <c r="W27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>70</v>
       </c>
@@ -1531,8 +1855,17 @@
       <c r="O28" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q28" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="R28" t="s">
+        <v>84</v>
+      </c>
+      <c r="S28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>71</v>
       </c>
@@ -1551,8 +1884,15 @@
       <c r="O29" s="14" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="Q29" s="24"/>
+      <c r="R29" t="s">
+        <v>85</v>
+      </c>
+      <c r="S29" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>76</v>
       </c>
@@ -1572,7 +1912,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I31" s="8" t="s">
         <v>25</v>
       </c>
@@ -1593,7 +1933,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I32" s="8" t="s">
         <v>25</v>
       </c>
@@ -2189,7 +2529,19 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="33">
+  <mergeCells count="45">
+    <mergeCell ref="Q26:Q27"/>
+    <mergeCell ref="Q28:Q29"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q17:Q18"/>
+    <mergeCell ref="Q19:Q20"/>
+    <mergeCell ref="Q22:Q23"/>
+    <mergeCell ref="Q24:Q25"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="Q10:Q11"/>
+    <mergeCell ref="Q13:Q14"/>
     <mergeCell ref="N6:N9"/>
     <mergeCell ref="L62:L64"/>
     <mergeCell ref="L59:L61"/>
@@ -2226,128 +2578,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CC1CE61-D275-452C-8785-74763B9138CE}">
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection sqref="A1:B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="25" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="H8" s="24" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>